--- a/TFG/target/excel/excel.xlsx
+++ b/TFG/target/excel/excel.xlsx
@@ -5,8 +5,7 @@
   <sheets>
     <sheet state="visible" name="suma" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="resta" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="nombre" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="soloSalida" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="compleja" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>configuracion</t>
   </si>
@@ -25,7 +24,13 @@
     <t>entrada</t>
   </si>
   <si>
+    <t>restando1</t>
+  </si>
+  <si>
     <t>sumando1</t>
+  </si>
+  <si>
+    <t>valor1</t>
   </si>
   <si>
     <t>sumando2</t>
@@ -34,34 +39,19 @@
     <t>salida</t>
   </si>
   <si>
+    <t>valor2</t>
+  </si>
+  <si>
+    <t>valor3</t>
+  </si>
+  <si>
+    <t>valor4</t>
+  </si>
+  <si>
     <t>gastoTotal</t>
   </si>
   <si>
-    <t>cadena</t>
-  </si>
-  <si>
-    <t>restando1</t>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
     <t>restando2</t>
-  </si>
-  <si>
-    <t>cadenaResultado</t>
-  </si>
-  <si>
-    <t>q tal</t>
-  </si>
-  <si>
-    <t>cadena2</t>
-  </si>
-  <si>
-    <t>pepe</t>
-  </si>
-  <si>
-    <t>holapepe</t>
   </si>
 </sst>
 </file>
@@ -84,12 +74,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -101,7 +94,6 @@
       <color rgb="FF6666FF"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="9">
     <fill>
@@ -189,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -208,41 +200,37 @@
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -260,10 +248,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -489,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>1.0</v>
@@ -500,34 +484,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>1.0</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8">
-        <f>SUM(C2:C3)</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="10"/>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13">
+        <f>C2+C3+2</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="D5" s="10"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="D6" s="10"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="E7" s="12"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.0" customHeight="1"/>
@@ -536,13 +520,13 @@
     <row r="12" ht="12.75" customHeight="1"/>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="D14" s="12"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="D15" s="12"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="D16" s="12"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
@@ -1564,37 +1548,37 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
         <v>2.0</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8">
         <v>1.0</v>
       </c>
       <c r="D3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="15">
-        <f>MINUS(C2,C3)</f>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16">
+        <f>C2-C3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1624,68 +1608,56 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>12</v>
+      <c r="C6" s="16">
+        <f>(C2/4)*C3+C4*C5</f>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/TFG/target/excel/excel.xlsx
+++ b/TFG/target/excel/excel.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>configuracion</t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
   <si>
     <t>get</t>
@@ -24,13 +27,22 @@
     <t>entrada</t>
   </si>
   <si>
+    <t>valor1</t>
+  </si>
+  <si>
     <t>restando1</t>
+  </si>
+  <si>
+    <t>valor2</t>
   </si>
   <si>
     <t>sumando1</t>
   </si>
   <si>
-    <t>valor1</t>
+    <t>valor3</t>
+  </si>
+  <si>
+    <t>valor4</t>
   </si>
   <si>
     <t>sumando2</t>
@@ -39,26 +51,17 @@
     <t>salida</t>
   </si>
   <si>
-    <t>valor2</t>
-  </si>
-  <si>
-    <t>valor3</t>
-  </si>
-  <si>
-    <t>valor4</t>
+    <t>restando2</t>
   </si>
   <si>
     <t>gastoTotal</t>
-  </si>
-  <si>
-    <t>restando2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -70,14 +73,11 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -181,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -191,46 +191,40 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -463,55 +457,55 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12">
+        <f>C2+C3</f>
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="13">
-        <f>C2+C3+2</f>
-        <v>4</v>
-      </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.0" customHeight="1"/>
@@ -520,13 +514,13 @@
     <row r="12" ht="12.75" customHeight="1"/>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="D16" s="17"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
@@ -1537,48 +1531,48 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
         <v>2.0</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1.0</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16">
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13">
         <f>C2-C3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1605,57 +1599,57 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
+      <c r="A2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
+      <c r="A4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
+      <c r="A5" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16">
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13">
         <f>(C2/4)*C3+C4*C5</f>
         <v>3.5</v>
       </c>

--- a/TFG/target/excel/excel.xlsx
+++ b/TFG/target/excel/excel.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="suma" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="resta" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="compleja" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="post" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>configuracion</t>
   </si>
@@ -33,35 +34,47 @@
     <t>restando1</t>
   </si>
   <si>
+    <t>sumando1</t>
+  </si>
+  <si>
+    <t>sumando2</t>
+  </si>
+  <si>
     <t>valor2</t>
   </si>
   <si>
-    <t>sumando1</t>
+    <t>restando2</t>
   </si>
   <si>
     <t>valor3</t>
   </si>
   <si>
+    <t>salida</t>
+  </si>
+  <si>
     <t>valor4</t>
   </si>
   <si>
-    <t>sumando2</t>
+    <t>gastoTotal</t>
   </si>
   <si>
-    <t>salida</t>
+    <t>body</t>
   </si>
   <si>
-    <t>restando2</t>
+    <t>nombre</t>
   </si>
   <si>
-    <t>gastoTotal</t>
+    <t>tomas</t>
+  </si>
+  <si>
+    <t>dinero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -94,6 +107,10 @@
       <color rgb="FF6666FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="9">
     <fill>
@@ -181,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -191,10 +208,10 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -210,20 +227,32 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,6 +271,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -457,17 +490,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6">
         <v>1.0</v>
@@ -478,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6">
         <v>1.0</v>
@@ -486,7 +519,7 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -496,16 +529,16 @@
         <f>C2+C3</f>
         <v>2</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.0" customHeight="1"/>
@@ -514,13 +547,13 @@
     <row r="12" ht="12.75" customHeight="1"/>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="D14" s="16"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="D15" s="16"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="D16" s="16"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
@@ -1531,11 +1564,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -1554,25 +1587,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7">
         <v>1.0</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <f>C2-C3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1596,7 +1629,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -1614,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7">
         <v>2.0</v>
@@ -1625,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>1.0</v>
@@ -1636,22 +1669,90 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <f>(C2/4)*C3+C4*C5</f>
         <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/TFG/target/excel/excel.xlsx
+++ b/TFG/target/excel/excel.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="resta" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="compleja" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="post" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="post2" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>configuracion</t>
   </si>
@@ -28,13 +29,13 @@
     <t>entrada</t>
   </si>
   <si>
+    <t>sumando1</t>
+  </si>
+  <si>
     <t>valor1</t>
   </si>
   <si>
     <t>restando1</t>
-  </si>
-  <si>
-    <t>sumando1</t>
   </si>
   <si>
     <t>sumando2</t>
@@ -74,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -82,10 +83,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -107,10 +104,6 @@
       <color rgb="FF6666FF"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="9">
     <fill>
@@ -198,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -208,51 +201,36 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,6 +253,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -490,52 +472,52 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1.0</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <f>C2+C3</f>
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="E7" s="15"/>
@@ -1564,48 +1546,48 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
         <v>2.0</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1.0</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <f>C2-C3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1629,60 +1611,60 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <f>(C2/4)*C3+C4*C5</f>
         <v>3.5</v>
       </c>
@@ -1706,52 +1688,109 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="11">
+        <v>5.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
         <v>5.0</v>
       </c>
     </row>

--- a/TFG/target/excel/excel.xlsx
+++ b/TFG/target/excel/excel.xlsx
@@ -15,36 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>configuracion</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>get</t>
+    <t>entrada</t>
   </si>
   <si>
-    <t>entrada</t>
+    <t>restando1</t>
   </si>
   <si>
     <t>sumando1</t>
   </si>
   <si>
+    <t>sumando2</t>
+  </si>
+  <si>
     <t>valor1</t>
   </si>
   <si>
-    <t>restando1</t>
-  </si>
-  <si>
-    <t>sumando2</t>
+    <t>restando2</t>
   </si>
   <si>
     <t>valor2</t>
-  </si>
-  <si>
-    <t>restando2</t>
   </si>
   <si>
     <t>valor3</t>
@@ -68,6 +68,9 @@
     <t>tomas</t>
   </si>
   <si>
+    <t>marcos</t>
+  </si>
+  <si>
     <t>dinero</t>
   </si>
 </sst>
@@ -75,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -102,6 +105,10 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF6666FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -191,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -227,10 +234,13 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -482,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5">
         <v>1.0</v>
@@ -493,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>1.0</v>
@@ -511,13 +521,13 @@
         <f>C2+C3</f>
         <v>2</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="E7" s="15"/>
@@ -1547,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1557,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6">
         <v>2.0</v>
@@ -1569,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6">
         <v>1.0</v>
@@ -1587,7 +1597,7 @@
         <f>C2-C3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1609,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1618,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6">
         <v>5.0</v>
@@ -1629,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6">
         <v>2.0</v>
@@ -1689,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1698,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6">
         <v>5.0</v>
@@ -1720,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>2.0</v>
@@ -1757,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1771,15 +1781,18 @@
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="D2" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16">
         <v>2.0</v>
       </c>
     </row>

--- a/TFG/target/excel/excel.xlsx
+++ b/TFG/target/excel/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\Repositorios\Workspace Java\TFG\TFG\target\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF45C8-B76A-4AA5-9EB4-CC476EF216A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5715CE0E-6888-48CC-9215-F2EEBFA2FEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{70D779A3-D96A-46DB-9637-FAB903103B3F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>configuracion</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>tomas</t>
-  </si>
-  <si>
-    <t>felipe</t>
-  </si>
-  <si>
-    <t>marcos</t>
   </si>
   <si>
     <t>dinero</t>
@@ -141,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -224,26 +218,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -254,9 +233,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -270,9 +246,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FEC727-9EBE-4824-9AAA-04B74E38A6A0}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +573,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,55 +581,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C3" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
-        <v>80</v>
-      </c>
-      <c r="D3" s="7">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TFG/target/excel/excel.xlsx
+++ b/TFG/target/excel/excel.xlsx
@@ -1,69 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\Repositorios\Workspace Java\TFG\TFG\target\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5715CE0E-6888-48CC-9215-F2EEBFA2FEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09841896-9F86-4DAE-8C11-AA051EEE8C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{70D779A3-D96A-46DB-9637-FAB903103B3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Post" sheetId="1" r:id="rId1"/>
+    <sheet name="Productos" sheetId="1" r:id="rId1"/>
+    <sheet name="Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>configuracion</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>tomas</t>
-  </si>
-  <si>
-    <t>dinero</t>
-  </si>
-  <si>
-    <t>salida</t>
-  </si>
-  <si>
-    <t>ingresos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Pizza gratis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,71 +58,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -143,116 +75,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -265,8 +103,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11530795-6672-4D46-8D7B-3332C07A85D2}" name="Tabla1" displayName="Tabla1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{11B37395-AE88-4BC1-BD85-6101E444BC2C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EB40C27A-CB69-43E7-A28B-C913456E5C37}" name="Nombre"/>
+    <tableColumn id="2" xr3:uid="{D72982A4-3D28-4A77-ACC6-0289BAAEA2BF}" name="Precio"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56DC21F6-807F-4839-859B-99985C251AD3}" name="Tabla2" displayName="Tabla2" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{47B4F58F-DF7F-488B-85C3-A79E5FB3E64C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D1191394-4CFB-42D6-89D2-DD09ABE69690}" name="Nombre"/>
+    <tableColumn id="2" xr3:uid="{7611DB16-08EF-4F88-BC5C-867B222C7B36}" name="Fecha" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -282,7 +142,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -294,7 +154,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -311,7 +171,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -341,29 +201,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -393,23 +236,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,62 +387,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FEC727-9EBE-4824-9AAA-04B74E38A6A0}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401BCA7-A50C-4117-870C-989609E8150F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>41255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/TFG/target/excel/excel.xlsx
+++ b/TFG/target/excel/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09841896-9F86-4DAE-8C11-AA051EEE8C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEBFDA5-F525-4203-94B0-E50D5EC72A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Pizza gratis</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
@@ -104,11 +107,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11530795-6672-4D46-8D7B-3332C07A85D2}" name="Tabla1" displayName="Tabla1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{11B37395-AE88-4BC1-BD85-6101E444BC2C}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11530795-6672-4D46-8D7B-3332C07A85D2}" name="Tabla1" displayName="Tabla1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{11B37395-AE88-4BC1-BD85-6101E444BC2C}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EB40C27A-CB69-43E7-A28B-C913456E5C37}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{D72982A4-3D28-4A77-ACC6-0289BAAEA2BF}" name="Precio"/>
+    <tableColumn id="3" xr3:uid="{BE0BDF1F-0291-43F9-BEAD-30033D05616D}" name="Descripcion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -388,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,15 +404,18 @@
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -416,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -436,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401BCA7-A50C-4117-870C-989609E8150F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
